--- a/policiamunicipal_datos_actuaciones_marzo2025.xlsx
+++ b/policiamunicipal_datos_actuaciones_marzo2025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53AADA5-E9BC-4F36-B46F-6F657BEDC59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A53AADA5-E9BC-4F36-B46F-6F657BEDC59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11565D53-28EC-4C47-B798-9AB0E8A11DFA}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15972" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGURIDAD" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="132">
   <si>
     <t>SEGURIDAD CIUDADANA</t>
   </si>
@@ -511,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -569,11 +569,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,6 +614,9 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,17 +922,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -927,14 +943,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -953,8 +969,11 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,8 +992,12 @@
       <c r="F4" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>SUM(B4:F4)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -993,8 +1016,12 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G25" si="0">SUM(B5:F5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1040,12 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1033,8 +1064,12 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,8 +1088,12 @@
       <c r="F8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1112,12 @@
       <c r="F9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1136,12 @@
       <c r="F10" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1160,12 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1184,12 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,8 +1208,12 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1232,12 @@
       <c r="F14" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1193,8 +1256,12 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,8 +1280,12 @@
       <c r="F16" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1233,8 +1304,12 @@
       <c r="F17" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,8 +1328,12 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,8 +1352,12 @@
       <c r="F19" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,8 +1376,12 @@
       <c r="F20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1313,8 +1400,12 @@
       <c r="F21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1333,8 +1424,12 @@
       <c r="F22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,8 +1448,12 @@
       <c r="F23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1373,8 +1472,12 @@
       <c r="F24" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1393,8 +1496,12 @@
       <c r="F25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -1435,13 +1542,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
@@ -1450,14 +1557,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1468,7 +1575,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1622,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1666,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -1710,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -1739,13 +1846,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -1754,7 +1861,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>97</v>
       </c>
@@ -1763,7 +1870,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1892,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1807,7 +1914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1925,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1936,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1947,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +1958,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +1980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +2002,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1906,7 +2013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +2024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1928,7 +2035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +2046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1950,7 +2057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1961,7 +2068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1972,7 +2079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +2090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,7 +2101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2016,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -2045,13 +2152,13 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>75</v>
       </c>
@@ -2060,14 +2167,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2100,7 +2207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2111,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +2273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2210,7 +2317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2232,7 +2339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2243,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2265,7 +2372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2320,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -2349,13 +2456,13 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>78</v>
       </c>
@@ -2364,14 +2471,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2379,7 +2486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -2387,7 +2494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
@@ -2395,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -2403,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -2411,23 +2518,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2452,13 +2559,13 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
@@ -2467,7 +2574,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>99</v>
       </c>
@@ -2476,7 +2583,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -2484,7 +2591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -2492,7 +2599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -2500,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -2508,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -2516,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -2524,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -2532,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -2540,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -2548,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2573,13 +2680,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
@@ -2588,7 +2695,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>121</v>
       </c>
@@ -2597,7 +2704,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +2712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2720,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -2621,7 +2728,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2645,13 +2752,13 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
@@ -2662,7 +2769,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>94</v>
       </c>
@@ -2673,7 +2780,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -2687,7 +2794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -2701,7 +2808,7 @@
         <v>85.800000000000026</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -2715,7 +2822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -2729,7 +2836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +2850,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -2757,7 +2864,7 @@
         <v>134.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2878,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -2801,13 +2908,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>101</v>
       </c>
@@ -2816,14 +2923,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2831,7 +2938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2839,7 +2946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -2847,7 +2954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2871,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2879,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2895,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2903,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2911,7 +3018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2919,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2927,7 +3034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2935,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2943,7 +3050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2951,7 +3058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2959,7 +3066,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2967,7 +3074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2975,7 +3082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2983,7 +3090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -3008,13 +3115,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>102</v>
       </c>
@@ -3023,7 +3130,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>107</v>
       </c>
@@ -3032,7 +3139,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3040,7 +3147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +3155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3072,7 +3179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3088,7 +3195,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3096,7 +3203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3104,7 +3211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3136,7 +3243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3251,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3160,7 +3267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +3275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3184,7 +3291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3200,7 +3307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3208,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -3216,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -3241,13 +3348,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -3256,14 +3363,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +3381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3307,7 +3414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3318,7 +3425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3340,7 +3447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3351,7 +3458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3362,7 +3469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3384,7 +3491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3428,7 +3535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3439,7 +3546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3450,7 +3557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3461,7 +3568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3472,7 +3579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +3590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3494,7 +3601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3505,7 +3612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -3516,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -3545,13 +3652,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -3560,14 +3667,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -3575,7 +3682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3583,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -3591,7 +3698,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -3599,7 +3706,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -3607,7 +3714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -3615,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3623,7 +3730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -3631,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3656,13 +3763,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
@@ -3671,14 +3778,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -3686,13 +3793,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +3807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -3708,7 +3815,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -3716,13 +3823,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -3730,7 +3837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -3738,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -3746,13 +3853,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3760,7 +3867,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3768,7 +3875,7 @@
         <v>12363</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,13 +3883,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -3791,7 +3898,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -3800,7 +3907,7 @@
         <v>13541</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -3809,7 +3916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -3834,13 +3941,13 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>102</v>
       </c>
@@ -3849,7 +3956,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>126</v>
       </c>
@@ -3858,7 +3965,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -3866,7 +3973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -3874,7 +3981,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,7 +3989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,7 +3997,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -3898,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3923,13 +4030,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>116</v>
       </c>
@@ -3938,7 +4045,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>95</v>
       </c>
@@ -3947,7 +4054,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -3955,7 +4062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3963,7 +4070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3971,7 +4078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +4086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3987,7 +4094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +4102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4003,7 +4110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4019,7 +4126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4027,7 +4134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4035,7 +4142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4043,7 +4150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4051,7 +4158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4059,7 +4166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4067,7 +4174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4075,7 +4182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4083,7 +4190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4099,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -4107,7 +4214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4115,7 +4222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -4131,7 +4238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -4156,13 +4263,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>119</v>
       </c>
@@ -4171,7 +4278,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>96</v>
       </c>
@@ -4180,7 +4287,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -4191,7 +4298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4202,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4213,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4224,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4235,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4246,7 +4353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4257,7 +4364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4279,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4290,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4301,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4312,7 +4419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4323,7 +4430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4334,7 +4441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4345,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4356,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4367,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4389,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -4400,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4411,7 +4518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -4422,7 +4529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -4433,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
